--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/36.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/36.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2657497518368984</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936701734923101</v>
+        <v>-1.949918820266052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1287114954381621</v>
+        <v>0.1327879497079792</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1474332401877637</v>
+        <v>-0.1483005087537635</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2649999199517639</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.079741186341336</v>
+        <v>-2.092923230530105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0669237202789969</v>
+        <v>0.06913861323290539</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1203026265624983</v>
+        <v>-0.1205654352188618</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2808615370134042</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.290231209439325</v>
+        <v>-2.30622749632332</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05333651274500055</v>
+        <v>0.05639823359163609</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1430019942318558</v>
+        <v>-0.1442590956381282</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.308719645549811</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.459491664522188</v>
+        <v>-2.476536265935457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002126629572875392</v>
+        <v>0.0009280865218328016</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1687265815455762</v>
+        <v>-0.1693558622727578</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3390402680524227</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.530007607168806</v>
+        <v>-2.547523074091392</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0727882815400565</v>
+        <v>-0.07483088881923776</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1724526242735752</v>
+        <v>-0.1719240868646662</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3634390237162243</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.330676731629632</v>
+        <v>-2.34493337121331</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1216911322969525</v>
+        <v>-0.1287300241432233</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1483764312544907</v>
+        <v>-0.1474580610053092</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.377099664804867</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.021910871532579</v>
+        <v>-2.037964830316165</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1695661091978487</v>
+        <v>-0.1803281236759367</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1172671865814991</v>
+        <v>-0.1159137220012267</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3781695436407363</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.666375290939447</v>
+        <v>-1.685004044531351</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1001393624270492</v>
+        <v>-0.1098399219430466</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07401326188832889</v>
+        <v>-0.07314745337042003</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3598473095207515</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.233059298423381</v>
+        <v>-1.254926438680921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01098051762773919</v>
+        <v>0.00743844095919469</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01091436354352766</v>
+        <v>-0.01046758882770959</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3146888216399752</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9183605329089204</v>
+        <v>-0.9443581492156407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07443858780290397</v>
+        <v>0.07423856121444948</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01581720503279907</v>
+        <v>-0.01619827758452624</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2400751566219259</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5512825421331098</v>
+        <v>-0.5822983437282833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1439397970263399</v>
+        <v>0.147807464419157</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.01991994016825251</v>
+        <v>-0.02324884981552434</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1377044739908787</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1042785987647753</v>
+        <v>-0.1417930744125834</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009393445352921437</v>
+        <v>0.011719301961739</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04957980900709247</v>
+        <v>0.04544787290982084</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01570427014145659</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3521864562326475</v>
+        <v>0.30932236437975</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1633127232244867</v>
+        <v>-0.1617008301321235</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1190693378458011</v>
+        <v>0.1119589036430757</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1155167729328107</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8975903406877739</v>
+        <v>0.8540312659436037</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1847111880448446</v>
+        <v>-0.1769612527783012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2009400744954155</v>
+        <v>0.1938617613506901</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2526424013990471</v>
       </c>
       <c r="E16" t="n">
-        <v>1.595404265208586</v>
+        <v>1.555961066032688</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5196579004840274</v>
+        <v>-0.51026249101903</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2660450789171253</v>
+        <v>0.2588791628869453</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4011388764700163</v>
       </c>
       <c r="E17" t="n">
-        <v>2.298103510641579</v>
+        <v>2.263573373291589</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6880014453658004</v>
+        <v>-0.6753778695718038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.376598460312641</v>
+        <v>0.3686251376881886</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5648954939083207</v>
       </c>
       <c r="E18" t="n">
-        <v>3.059274762019284</v>
+        <v>3.029692727649383</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9651798950400896</v>
+        <v>-0.9538090405080927</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4880687519092474</v>
+        <v>0.4791230372562498</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7383675123011949</v>
       </c>
       <c r="E19" t="n">
-        <v>3.685885061242661</v>
+        <v>3.661489117691668</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.205376786619752</v>
+        <v>-1.193480314775028</v>
       </c>
       <c r="G19" t="n">
-        <v>0.608749026863306</v>
+        <v>0.5985841720543996</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9106224128464111</v>
       </c>
       <c r="E20" t="n">
-        <v>4.342454087243394</v>
+        <v>4.327452093109307</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.464998158000864</v>
+        <v>-1.45414562054114</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7227802428113662</v>
+        <v>0.7087842218119155</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.068595136505974</v>
       </c>
       <c r="E21" t="n">
-        <v>4.863863541372527</v>
+        <v>4.853224170934075</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.735949502567428</v>
+        <v>-1.728323671388612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8701385164825085</v>
+        <v>0.8570594056841484</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.205094659366059</v>
       </c>
       <c r="E22" t="n">
-        <v>5.378001956008934</v>
+        <v>5.375236624924753</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.955304207649369</v>
+        <v>-1.948385039746553</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9572960872693033</v>
+        <v>0.9435935359361252</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.315368977612882</v>
       </c>
       <c r="E23" t="n">
-        <v>5.72305950147766</v>
+        <v>5.724519549568568</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.201390933227758</v>
+        <v>-2.200267426221803</v>
       </c>
       <c r="G23" t="n">
-        <v>1.068233461312728</v>
+        <v>1.052334997650823</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.397275814278613</v>
       </c>
       <c r="E24" t="n">
-        <v>6.142207187319547</v>
+        <v>6.15129014649309</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.428421841147651</v>
+        <v>-2.432258117506514</v>
       </c>
       <c r="G24" t="n">
-        <v>1.187339804424787</v>
+        <v>1.1737350763137</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.450222779978802</v>
       </c>
       <c r="E25" t="n">
-        <v>6.428268569578925</v>
+        <v>6.445186146808284</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.553250842752027</v>
+        <v>-2.556136627803708</v>
       </c>
       <c r="G25" t="n">
-        <v>1.261267879459858</v>
+        <v>1.247855877696771</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.474056380488064</v>
       </c>
       <c r="E26" t="n">
-        <v>6.58841978462261</v>
+        <v>6.613523851497694</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.603243619408786</v>
+        <v>-2.604670086393604</v>
       </c>
       <c r="G26" t="n">
-        <v>1.323835320299569</v>
+        <v>1.313042644811571</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.47075866230182</v>
       </c>
       <c r="E27" t="n">
-        <v>6.690913700556309</v>
+        <v>6.719656207273938</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.685454547263582</v>
+        <v>-2.690478572744399</v>
       </c>
       <c r="G27" t="n">
-        <v>1.336187327148656</v>
+        <v>1.32285708807866</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.443168414764451</v>
       </c>
       <c r="E28" t="n">
-        <v>6.871163937619443</v>
+        <v>6.906419718870615</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.713678006884893</v>
+        <v>-2.716450638209528</v>
       </c>
       <c r="G28" t="n">
-        <v>1.375436339928464</v>
+        <v>1.363415763996012</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.396904221549514</v>
       </c>
       <c r="E29" t="n">
-        <v>6.833554558845726</v>
+        <v>6.871661814018442</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.73410334965266</v>
+        <v>-2.738494444286068</v>
       </c>
       <c r="G29" t="n">
-        <v>1.360613931709559</v>
+        <v>1.349662110979652</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.338825563657738</v>
       </c>
       <c r="E30" t="n">
-        <v>6.767928317255561</v>
+        <v>6.807961375860187</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.639099480425322</v>
+        <v>-2.639495883482004</v>
       </c>
       <c r="G30" t="n">
-        <v>1.343510928372654</v>
+        <v>1.332894918703657</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.276219356002291</v>
       </c>
       <c r="E31" t="n">
-        <v>6.787520702587465</v>
+        <v>6.835210253380816</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541163834631439</v>
+        <v>-2.539149698290031</v>
       </c>
       <c r="G31" t="n">
-        <v>1.305501496422028</v>
+        <v>1.294583256798213</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.213607915160017</v>
       </c>
       <c r="E32" t="n">
-        <v>6.743300226058113</v>
+        <v>6.796627022530463</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.409137525962929</v>
+        <v>-2.404330317623612</v>
       </c>
       <c r="G32" t="n">
-        <v>1.258355083518495</v>
+        <v>1.24889981208177</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.154114446833707</v>
       </c>
       <c r="E33" t="n">
-        <v>6.574233957371341</v>
+        <v>6.631659108834871</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373483881606984</v>
+        <v>-2.370356458596258</v>
       </c>
       <c r="G33" t="n">
-        <v>1.20006996372942</v>
+        <v>1.190839539698695</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.098068820136641</v>
       </c>
       <c r="E34" t="n">
-        <v>6.279191819304783</v>
+        <v>6.33169514865386</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.337465225228312</v>
+        <v>-2.332266724000632</v>
       </c>
       <c r="G34" t="n">
-        <v>1.150197641040161</v>
+        <v>1.140710248545436</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.044966648715886</v>
       </c>
       <c r="E35" t="n">
-        <v>6.083342428438382</v>
+        <v>6.136625423468003</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298280454564504</v>
+        <v>-2.295466941893323</v>
       </c>
       <c r="G35" t="n">
-        <v>1.08936473733245</v>
+        <v>1.081168027350088</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9939150251760892</v>
       </c>
       <c r="E36" t="n">
-        <v>5.885704478660617</v>
+        <v>5.940069369325601</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.236236440965385</v>
+        <v>-2.230542983434886</v>
       </c>
       <c r="G36" t="n">
-        <v>1.065363006766002</v>
+        <v>1.060541927969821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9436303716176134</v>
       </c>
       <c r="E37" t="n">
-        <v>5.58100704256888</v>
+        <v>5.633040236432684</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.190563216585579</v>
+        <v>-2.186678758639716</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9611433139888477</v>
+        <v>0.9546650806094858</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8947431253713823</v>
       </c>
       <c r="E38" t="n">
-        <v>5.27358807683569</v>
+        <v>5.327278425282675</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.144117626765682</v>
+        <v>-2.140349972667092</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8871582970782312</v>
+        <v>0.8811020175971419</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.847528826498127</v>
       </c>
       <c r="E39" t="n">
-        <v>4.957600088856957</v>
+        <v>5.012728584673487</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.085309809760062</v>
+        <v>-2.08206120275779</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8069169740980709</v>
+        <v>0.7999905059548</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8033791382068963</v>
       </c>
       <c r="E40" t="n">
-        <v>4.665415264904308</v>
+        <v>4.722006728907929</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.103373524740784</v>
+        <v>-2.10342389639992</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7658545815893547</v>
+        <v>0.7604100622583562</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7613121787892034</v>
       </c>
       <c r="E41" t="n">
-        <v>4.34551580809003</v>
+        <v>4.400175628469379</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999219534127721</v>
+        <v>-1.997536828702949</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6864746869828305</v>
+        <v>0.6806958166390139</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7200616410598175</v>
       </c>
       <c r="E42" t="n">
-        <v>3.97021190637004</v>
+        <v>4.019979105596754</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908936730402336</v>
+        <v>-1.906778049299928</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6063399475133066</v>
+        <v>0.6018327790566714</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6780354461958396</v>
       </c>
       <c r="E43" t="n">
-        <v>3.669433239354302</v>
+        <v>3.717684908662653</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.856786732691259</v>
+        <v>-1.854231648532169</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5661915451094992</v>
+        <v>0.5615675728055913</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6335830969682668</v>
       </c>
       <c r="E44" t="n">
-        <v>3.370424150624746</v>
+        <v>3.414324876622189</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.76244791536933</v>
+        <v>-1.758958400432058</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5165718107399671</v>
+        <v>0.5130808357546044</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5864296856748492</v>
       </c>
       <c r="E45" t="n">
-        <v>3.088115091959004</v>
+        <v>3.131316454920901</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679550764911807</v>
+        <v>-1.676512404834626</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4224439703671742</v>
+        <v>0.4175630295992664</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5362335916332197</v>
       </c>
       <c r="E46" t="n">
-        <v>2.793938762410356</v>
+        <v>2.835558893289799</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600572383530283</v>
+        <v>-1.598773604282283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3844768798111843</v>
+        <v>0.3796543409669129</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4844002757634447</v>
       </c>
       <c r="E47" t="n">
-        <v>2.46555934628408</v>
+        <v>2.504027233335252</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479951970547951</v>
+        <v>-1.476401133590861</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3206362770362015</v>
+        <v>0.3160152248284755</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4320816557555372</v>
       </c>
       <c r="E48" t="n">
-        <v>2.174345454311886</v>
+        <v>2.209348647243331</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.376933897349615</v>
+        <v>-1.371327312680526</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2909169981457549</v>
+        <v>0.2884991585072101</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3815454556885978</v>
       </c>
       <c r="E49" t="n">
-        <v>1.896492462419596</v>
+        <v>1.926841022037225</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.291322517491093</v>
+        <v>-1.284231063913549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2368879185416785</v>
+        <v>0.2345007399130428</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3349375209658078</v>
       </c>
       <c r="E50" t="n">
-        <v>1.76214175719036</v>
+        <v>1.792723924502533</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.170595520998125</v>
+        <v>-1.161775370480946</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1979133948029617</v>
+        <v>0.1969483030148711</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2933676981742604</v>
       </c>
       <c r="E51" t="n">
-        <v>1.490437027808887</v>
+        <v>1.514646085204244</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.094635059020509</v>
+        <v>-1.085774027156784</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1669881161894246</v>
+        <v>0.1663792761355156</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2578236617726247</v>
       </c>
       <c r="E52" t="n">
-        <v>1.332510926055748</v>
+        <v>1.35439850698656</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.012339448376441</v>
+        <v>-1.002935278622898</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1444785547718852</v>
+        <v>0.1434156397617036</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2282700002927401</v>
       </c>
       <c r="E53" t="n">
-        <v>1.090694841143268</v>
+        <v>1.110493093255989</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9399312834040054</v>
+        <v>-0.928745854979554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1007851556033514</v>
+        <v>0.100104773192988</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2049391270896537</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9470596901039424</v>
+        <v>0.9647218918596649</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9469322139999127</v>
+        <v>-0.9365191510155518</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04962069035363791</v>
+        <v>0.04931554030263799</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.187040702115112</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7865828843359854</v>
+        <v>0.8030201057434356</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9008180550966524</v>
+        <v>-0.8901217427826552</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02333690462109951</v>
+        <v>0.02093074536728198</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.173721520129513</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6427345662753877</v>
+        <v>0.654883626439839</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8519006038588472</v>
+        <v>-0.8403414031231231</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01631699340001049</v>
+        <v>0.01486278550146542</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1640554564206921</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4998557201471533</v>
+        <v>0.5106965772221504</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8208906424560374</v>
+        <v>-0.8071209289106775</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01154802441498203</v>
+        <v>-0.01302851317916345</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1571203798824761</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3909361325653644</v>
+        <v>0.3999037479397257</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8146328763384028</v>
+        <v>-0.8021611455458606</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02710629687170513</v>
+        <v>-0.02863788731906835</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1523372895465932</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2445838320288583</v>
+        <v>0.2537719146649468</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7501002107683292</v>
+        <v>-0.737437213675878</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09224926254377855</v>
+        <v>-0.09419696669705074</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1487344947786068</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1849627682366016</v>
+        <v>0.1930090932655994</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7330760500283338</v>
+        <v>-0.7207050625540643</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07983447362678188</v>
+        <v>-0.08122297936123604</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1459170925432537</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02702206600255307</v>
+        <v>0.03479098189427825</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7050037053844321</v>
+        <v>-0.6932123570022536</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1361894098396758</v>
+        <v>-0.1378465644228572</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1432517514371245</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.06011944425524172</v>
+        <v>-0.05230088672842563</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7231871443086091</v>
+        <v>-0.7115841421301576</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1687806033249398</v>
+        <v>-0.1694376249658487</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1404331504806432</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1534676189474894</v>
+        <v>-0.1462345407051277</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7572383858847818</v>
+        <v>-0.7455156597628758</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1840716869810266</v>
+        <v>-0.1846527861212083</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1369737703148177</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2671192223919134</v>
+        <v>-0.2586407231280066</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7595073006180539</v>
+        <v>-0.7482196688272388</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2171227956149268</v>
+        <v>-0.2180747469701993</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1321481719433074</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4199395359711451</v>
+        <v>-0.4119486927696018</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7411749367886042</v>
+        <v>-0.7289543342676985</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2377269942738304</v>
+        <v>-0.2383840159147393</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1257124781227563</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4460933774235926</v>
+        <v>-0.4350495736639592</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7718972687175051</v>
+        <v>-0.7596795862927811</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2541320946232805</v>
+        <v>-0.2533553490389171</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1178876138906418</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5319631857942059</v>
+        <v>-0.5223984107506631</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8121522546319488</v>
+        <v>-0.800156499517043</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2695005608281855</v>
+        <v>-0.2679616701403677</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1088118176023137</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.566440761412924</v>
+        <v>-0.5546129118284726</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7628099293996894</v>
+        <v>-0.7472501968948754</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3198736800126265</v>
+        <v>-0.3203423554498082</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.09863463963403621</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6476705369506294</v>
+        <v>-0.6354251136121781</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8076815873775864</v>
+        <v>-0.7937220675804084</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3191874574098994</v>
+        <v>-0.317817932300627</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.08775482722411833</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.756835412611691</v>
+        <v>-0.7453389939438759</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8064230259232231</v>
+        <v>-0.7889024488323187</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3580816785036163</v>
+        <v>-0.3583138261500707</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.0765196923051846</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7853895731255924</v>
+        <v>-0.7733310359427775</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9336136553146436</v>
+        <v>-0.9190905569543747</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4022276925803317</v>
+        <v>-0.4037052612483313</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.06506340492539324</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8285821757989444</v>
+        <v>-0.8158388760614933</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.000534959561444</v>
+        <v>-0.9856439290822659</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4202052647236905</v>
+        <v>-0.4209250684325085</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.05380694026519839</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8781756293028402</v>
+        <v>-0.8686736363272064</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.033862017284526</v>
+        <v>-1.021064695767711</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4531906711934998</v>
+        <v>-0.4543762302433177</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.0431671960228328</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8200233738900377</v>
+        <v>-0.8119463878511307</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.059204071998428</v>
+        <v>-1.045813970956704</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4674538809935869</v>
+        <v>-0.4689124690364047</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.03376818987545961</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8030532349294058</v>
+        <v>-0.796812989388862</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.123529410739593</v>
+        <v>-1.112748415636323</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4560100240570445</v>
+        <v>-0.4579124667194985</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.02592033653054721</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7200334404322464</v>
+        <v>-0.7132850981560663</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.165279485899127</v>
+        <v>-1.156306030332402</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4590644446632255</v>
+        <v>-0.4602865049153161</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.01977581823028802</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5696718478381049</v>
+        <v>-0.56108384496738</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.150795808837312</v>
+        <v>-1.139468755748043</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4390238245674127</v>
+        <v>-0.4412854390602303</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.01506656157658121</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4327675184978689</v>
+        <v>-0.4209513492981448</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.174585832430579</v>
+        <v>-1.164851691808491</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4510911220387731</v>
+        <v>-0.4546813802943176</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.01132635705502459</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3296136608270784</v>
+        <v>-0.3178923947532634</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.255225748539557</v>
+        <v>-1.248053992317014</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3949099315486972</v>
+        <v>-0.3977424248450602</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.008575952308464301</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.141223655657129</v>
+        <v>-0.1285489781799506</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.311706248888269</v>
+        <v>-1.306112804651998</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3728982465301577</v>
+        <v>-0.3753058658320662</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.006951381230738448</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01676230806773764</v>
+        <v>0.0307539489229157</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302102052546272</v>
+        <v>-1.300087186180818</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3227324541746258</v>
+        <v>-0.3244202697677162</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.006746404744962197</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2280429472069536</v>
+        <v>0.2431792657654041</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289719384687275</v>
+        <v>-1.289135365450912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2872240846037262</v>
+        <v>-0.2882767792772714</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.00842138936310506</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4103912733767229</v>
+        <v>0.4255786936183552</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.231632831438564</v>
+        <v>-1.229848652671473</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2694640596259128</v>
+        <v>-0.2703736695865489</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.01271355798353378</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6177005817086672</v>
+        <v>0.6311257239045727</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.154444469016493</v>
+        <v>-1.151720019278858</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2446812033308285</v>
+        <v>-0.2459120238714645</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.02042766362347762</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7336795018099996</v>
+        <v>0.7439188190715423</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.067339459960971</v>
+        <v>-1.062575323040336</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2092896376072017</v>
+        <v>-0.2099320587672015</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03178617710584945</v>
       </c>
       <c r="E86" t="n">
-        <v>0.958756135360212</v>
+        <v>0.9702350334509362</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.000644463168262</v>
+        <v>-0.9978134299199899</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1795761989091187</v>
+        <v>-0.1812873752716637</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04599685753970348</v>
       </c>
       <c r="E87" t="n">
-        <v>1.10281324029781</v>
+        <v>1.113150380781443</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9439230548845499</v>
+        <v>-0.9428835006438229</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1500759272323085</v>
+        <v>-0.1512454257531263</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06145448926574978</v>
       </c>
       <c r="E88" t="n">
-        <v>1.206485415040873</v>
+        <v>1.214213449586052</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8889493241656555</v>
+        <v>-0.8887405372886555</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1136973689992273</v>
+        <v>-0.1150055720886815</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0758696915775566</v>
       </c>
       <c r="E89" t="n">
-        <v>1.328708960827022</v>
+        <v>1.336219448206656</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7907610900520455</v>
+        <v>-0.794240384652681</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1118708488375005</v>
+        <v>-0.1133892988520456</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08558970099851783</v>
       </c>
       <c r="E90" t="n">
-        <v>1.368766840249193</v>
+        <v>1.371469389265465</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6909887037597996</v>
+        <v>-0.694100066241526</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07759767995150975</v>
+        <v>-0.07882704044405488</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08718818218432844</v>
       </c>
       <c r="E91" t="n">
-        <v>1.41352607452409</v>
+        <v>1.415361354974362</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5843234304303737</v>
+        <v>-0.589692027260645</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01775906899370764</v>
+        <v>-0.01625229936388986</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07854414042928255</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438119124567356</v>
+        <v>1.438409674137447</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4550128112109539</v>
+        <v>-0.4629598529697699</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0198177368018889</v>
+        <v>-0.02097263484179768</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05959326458931621</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410423472330909</v>
+        <v>1.408751717266818</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3458815166559832</v>
+        <v>-0.3549688559737989</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01330446226834519</v>
+        <v>-0.01415859040152678</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03309947636081707</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409481741312273</v>
+        <v>1.410067220596727</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.207093725278475</v>
+        <v>-0.2148801617472911</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01664213220416248</v>
+        <v>-0.01643626542334435</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.002995678782360023</v>
       </c>
       <c r="E95" t="n">
-        <v>1.336474956622565</v>
+        <v>1.334663036941747</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09191783162714227</v>
+        <v>-0.09818727812950422</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01916947544952544</v>
+        <v>-0.0186599186657983</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02707430384506312</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257563737453223</v>
+        <v>1.25718996514195</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0348493838179146</v>
+        <v>0.02958007025782511</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03364439222279428</v>
+        <v>-0.03383127837843059</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05462276012803231</v>
       </c>
       <c r="E97" t="n">
-        <v>1.175869666622608</v>
+        <v>1.173875240930427</v>
       </c>
       <c r="F97" t="n">
-        <v>0.134039210921888</v>
+        <v>0.1315585892154341</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05266589875115281</v>
+        <v>-0.0522775259589711</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07801371015995114</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07930646603418</v>
+        <v>1.074780316952363</v>
       </c>
       <c r="F98" t="n">
-        <v>0.195013739294417</v>
+        <v>0.1929068898992358</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05793083216696958</v>
+        <v>-0.05752055865342423</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09541935268117792</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9417319746202165</v>
+        <v>0.9374817746275813</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1961438165167804</v>
+        <v>0.1944808217412354</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05355506803851621</v>
+        <v>-0.05057949002924428</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1081904539781126</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8473515459276965</v>
+        <v>0.8423348206873341</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2122554471999579</v>
+        <v>0.2115006023369581</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04634973070988178</v>
+        <v>-0.04484442112815491</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1178836172564438</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6957620528891008</v>
+        <v>0.6883289480582846</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1993208811625977</v>
+        <v>0.197349816239871</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05056488954833519</v>
+        <v>-0.04879093111788112</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1288441884899573</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6346634204288445</v>
+        <v>0.6295955935053004</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2075175911449592</v>
+        <v>0.2069496324375957</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08259834466287204</v>
+        <v>-0.08104047334987247</v>
       </c>
     </row>
   </sheetData>
